--- a/output/fit_clients/fit_round_269.xlsx
+++ b/output/fit_clients/fit_round_269.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2524985265.644912</v>
+        <v>1893295733.871684</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1133938488020853</v>
+        <v>0.09242951286563721</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03623281702712567</v>
+        <v>0.0301396129166059</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1262492699.085639</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1813136090.879498</v>
+        <v>2562180221.739589</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1570078298181932</v>
+        <v>0.124816981443364</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04850083522277392</v>
+        <v>0.04640343101705635</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>906568056.5523288</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5083930853.112562</v>
+        <v>5230286668.948563</v>
       </c>
       <c r="F4" t="n">
-        <v>0.112166735359437</v>
+        <v>0.1100702206243255</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03453125556991194</v>
+        <v>0.03506467514267949</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>97</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2541965517.512613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2729569153.363761</v>
+        <v>2676180876.393947</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0838456426236478</v>
+        <v>0.09835203497828514</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03743205175740725</v>
+        <v>0.04737441320351017</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>100</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1364784664.440603</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2158285428.561053</v>
+        <v>1815867752.677002</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09561272055472757</v>
+        <v>0.1490831207169263</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05205295484681699</v>
+        <v>0.04967135750248601</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>46</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1079142726.740463</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3046666266.952444</v>
+        <v>3104044305.032307</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0674639347373566</v>
+        <v>0.06928996526815141</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04859043470085875</v>
+        <v>0.03124662016024567</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>84</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1523333093.85994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3328939981.290986</v>
+        <v>3351198801.767801</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2077028191419069</v>
+        <v>0.2134255373141822</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02734643352734497</v>
+        <v>0.02211378644522511</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>86</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1664470081.784261</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1988157224.200724</v>
+        <v>2124187667.064738</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1829818242369855</v>
+        <v>0.1868891861685365</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02452230643046986</v>
+        <v>0.03412380640723101</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>994078640.3574448</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4389929356.092566</v>
+        <v>4523001391.224073</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1927603232658898</v>
+        <v>0.1555960822830254</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04187502092815364</v>
+        <v>0.03404251493864269</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>113</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2194964730.15088</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2781866107.787847</v>
+        <v>2894012400.082228</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1262214173159492</v>
+        <v>0.1529349585320803</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03404276864775065</v>
+        <v>0.04229108710485271</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>111</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1390932981.59314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3001703166.038307</v>
+        <v>2543246194.543612</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1478914552198386</v>
+        <v>0.1209530706836545</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03273586448348773</v>
+        <v>0.03582272900208883</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>91</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1500851601.162704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4578879555.929424</v>
+        <v>4801479211.667032</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07566975384173762</v>
+        <v>0.07523247883153827</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02132335768081618</v>
+        <v>0.02108806450070206</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>90</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2289439803.487298</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3662717482.047553</v>
+        <v>3567377094.589446</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1192491812845196</v>
+        <v>0.1586308113594551</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04110009099839871</v>
+        <v>0.04294810828760105</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>88</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1831358727.472306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1131343272.784576</v>
+        <v>1483216457.193156</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06738861351635123</v>
+        <v>0.1014755094960024</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04049664909532853</v>
+        <v>0.04356333246861239</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>565671638.3103368</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1926382016.915469</v>
+        <v>2518597123.772821</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09632602886660352</v>
+        <v>0.1151871027834804</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04519746815776441</v>
+        <v>0.03866629863928337</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>49</v>
-      </c>
-      <c r="J16" t="n">
-        <v>963191090.5271896</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3739463025.995254</v>
+        <v>3536440349.768013</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1435490529495736</v>
+        <v>0.1138364185889587</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03491084253559223</v>
+        <v>0.04273351326463448</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>79</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1869731560.480833</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4007158898.823563</v>
+        <v>3791246928.336648</v>
       </c>
       <c r="F18" t="n">
-        <v>0.129438361021475</v>
+        <v>0.1844140402697566</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03288128420549616</v>
+        <v>0.03302863521726158</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>88</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2003579406.723831</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>891102004.7804857</v>
+        <v>1298172450.270763</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1242601241701868</v>
+        <v>0.1551583694781919</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01765541679532789</v>
+        <v>0.02611630506598989</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>445551005.108781</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2653521100.539383</v>
+        <v>1730298122.024975</v>
       </c>
       <c r="F20" t="n">
-        <v>0.109398533147856</v>
+        <v>0.137172311932298</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02564847651027526</v>
+        <v>0.02130401911021499</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>41</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1326760507.003172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1972675798.980306</v>
+        <v>2177237491.115559</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06847283190495784</v>
+        <v>0.09230718687020523</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0415072991791931</v>
+        <v>0.03140168195700667</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>21</v>
-      </c>
-      <c r="J21" t="n">
-        <v>986337938.0723995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2859005427.852278</v>
+        <v>3978674999.382778</v>
       </c>
       <c r="F22" t="n">
-        <v>0.133372210564874</v>
+        <v>0.1352445071161063</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04822424729375106</v>
+        <v>0.05381535474202884</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>75</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1429502783.894976</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1267055014.593679</v>
+        <v>1238941794.872449</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1451565781809321</v>
+        <v>0.1529050454720488</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04271145193291685</v>
+        <v>0.03889008918450702</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>633527532.473736</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3248200548.552701</v>
+        <v>3246461643.954287</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1132167368725935</v>
+        <v>0.09852773353506684</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03701296805679796</v>
+        <v>0.02365472686552415</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>78</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1624100292.804635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1484870136.725835</v>
+        <v>1268386159.645942</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07561139804746585</v>
+        <v>0.1081416418100964</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02093420198517411</v>
+        <v>0.02188251654948253</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>742435020.7780886</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1084395471.958247</v>
+        <v>1237784714.125763</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1125530691279871</v>
+        <v>0.1043232418338431</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02732916648431622</v>
+        <v>0.02671401902629408</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>542197728.6993285</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3533241030.301491</v>
+        <v>4094233386.575869</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1563208249695138</v>
+        <v>0.0971136673845549</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02391792813257983</v>
+        <v>0.02705960706855027</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1766620548.511297</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3619812259.608221</v>
+        <v>3496107737.336289</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1187636118207256</v>
+        <v>0.09362845072549966</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04118336462064494</v>
+        <v>0.03404706154004423</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>88</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1809906194.812033</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4046115140.026093</v>
+        <v>3840962067.128968</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1089850599863925</v>
+        <v>0.1376153909997975</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0350918257427458</v>
+        <v>0.0296926296603318</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>119</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2023057583.666399</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1493750172.019353</v>
+        <v>1776167722.998695</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1171941439803379</v>
+        <v>0.09798890555037147</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02626185469448145</v>
+        <v>0.03346184110798238</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>746875065.7822552</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1381463188.901811</v>
+        <v>940582389.1765575</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09462913040707333</v>
+        <v>0.09044136867091915</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04313360110502858</v>
+        <v>0.03827743356237632</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>690731503.1870277</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1454802774.539179</v>
+        <v>1864585535.64889</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1062189002439752</v>
+        <v>0.1030289727378205</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02551913981156421</v>
+        <v>0.02770314139670683</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>727401446.2633772</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2592415894.450025</v>
+        <v>1984294202.007552</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1591163828635643</v>
+        <v>0.1974653614391325</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04785405498415623</v>
+        <v>0.05763106534493651</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>83</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1296207977.58164</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1132579712.844675</v>
+        <v>978356131.6706601</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1039279803851976</v>
+        <v>0.09184199932880546</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01801397711058949</v>
+        <v>0.02122669678756268</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>566289872.5742452</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1209632455.409336</v>
+        <v>1111473826.828639</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08139789258233941</v>
+        <v>0.07419505390210653</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03462053346668074</v>
+        <v>0.04412127896710354</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>604816200.3046356</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1961632039.128985</v>
+        <v>3055626066.740919</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1228748346468852</v>
+        <v>0.1446151779016077</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02805685260510019</v>
+        <v>0.02019086904157042</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>66</v>
-      </c>
-      <c r="J36" t="n">
-        <v>980816084.6835146</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2399671362.18233</v>
+        <v>2926473617.407419</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0896433192677856</v>
+        <v>0.1053716762292342</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02932133224093555</v>
+        <v>0.03584540041876969</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>71</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1199835763.338898</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1876990242.785377</v>
+        <v>1344911814.211554</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08493770896728194</v>
+        <v>0.08453440143325409</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03489476093180934</v>
+        <v>0.02695864498977508</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>938495117.3946956</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1889028397.755311</v>
+        <v>2131720263.951597</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1774008371930555</v>
+        <v>0.1487636514806374</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02640646428383906</v>
+        <v>0.03297916268871351</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>944514210.2419409</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1162157385.094558</v>
+        <v>1527650343.495718</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09903938402110252</v>
+        <v>0.1133845230013565</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04060502188643856</v>
+        <v>0.05622005209448597</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>581078743.3177369</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2910562781.821188</v>
+        <v>2923285112.414725</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1433304196431501</v>
+        <v>0.1298114286854335</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03740499107301393</v>
+        <v>0.0441021835016044</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>65</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1455281376.037764</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3175738269.010662</v>
+        <v>3643057597.948617</v>
       </c>
       <c r="F42" t="n">
-        <v>0.116728315632292</v>
+        <v>0.1135664168579463</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04545512869726076</v>
+        <v>0.04504869790643234</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>92</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1587869107.040566</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3064848787.929043</v>
+        <v>2381603844.80969</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2015432476703995</v>
+        <v>0.1777732660114464</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0156973317279935</v>
+        <v>0.01945541155323765</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>96</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1532424385.829693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1679541388.212849</v>
+        <v>1564137759.052384</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08739486314090969</v>
+        <v>0.08789705255823153</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03090273569658308</v>
+        <v>0.03365078749024494</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>839770736.494073</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1561578141.782302</v>
+        <v>1598071125.137043</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1611712460453575</v>
+        <v>0.1229016190764845</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04931221084755522</v>
+        <v>0.05026102353831934</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>780789017.5428261</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4115141922.127897</v>
+        <v>3998045403.760639</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1510714684123198</v>
+        <v>0.156628736323867</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04363901608012681</v>
+        <v>0.03930612855132844</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>96</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2057570937.195617</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3505382213.464401</v>
+        <v>3686227266.127472</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1376669387093163</v>
+        <v>0.163114262164236</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05477223721447696</v>
+        <v>0.03838784625362422</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>72</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1752691077.829344</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4193695434.521346</v>
+        <v>4151062909.350122</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07510597943616097</v>
+        <v>0.1004736983074597</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03070130555361732</v>
+        <v>0.02554277525337382</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>91</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2096847740.347512</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1716832315.79154</v>
+        <v>1418069017.928453</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1395810261484157</v>
+        <v>0.1439002188051721</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03567190576195874</v>
+        <v>0.03535551464061554</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>858416156.1940384</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3424242769.152653</v>
+        <v>3832469221.519152</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1484437123449618</v>
+        <v>0.1319269318112598</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04651672724773995</v>
+        <v>0.05232349761885064</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>92</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1712121414.239307</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>940633528.0724506</v>
+        <v>1083821563.31464</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1407129179388184</v>
+        <v>0.1826869890559201</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04338353598016009</v>
+        <v>0.04209798842139073</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>470316857.6070832</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3364232080.999993</v>
+        <v>4444196007.251516</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1025594034883279</v>
+        <v>0.08435957493074589</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05885202303644842</v>
+        <v>0.05227286161789008</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>111</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1682116134.395927</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2736575698.785712</v>
+        <v>3617342570.536172</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1393615081467755</v>
+        <v>0.197527052527314</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03459824334834846</v>
+        <v>0.03291564975393142</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>77</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1368287899.979084</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3147594176.438583</v>
+        <v>4390315662.947496</v>
       </c>
       <c r="F54" t="n">
-        <v>0.161301697971978</v>
+        <v>0.1165225173458771</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04060638732768538</v>
+        <v>0.03866675995901019</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>88</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1573797085.356703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4513722100.585033</v>
+        <v>4301469047.379819</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1639507994679705</v>
+        <v>0.1409144314621645</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0314857574043517</v>
+        <v>0.02705698411135152</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2256861047.89529</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1610185622.69374</v>
+        <v>1437213773.216919</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1373723446473955</v>
+        <v>0.1189054193277429</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04542997637829924</v>
+        <v>0.05072761325438869</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>805092837.2935262</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3168841698.36891</v>
+        <v>3182441112.92493</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1746666127538838</v>
+        <v>0.1332902532716567</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02060393714834789</v>
+        <v>0.01987327303865976</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>85</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1584420867.76071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1370704021.986861</v>
+        <v>1770768945.748851</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1467262151868773</v>
+        <v>0.1272456157142651</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03822752201264002</v>
+        <v>0.0294108439518963</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>685352053.9250776</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4820455119.839592</v>
+        <v>5326597056.687831</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1042057044971795</v>
+        <v>0.1265083230232501</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03637613151950139</v>
+        <v>0.0345980762677703</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>74</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2410227496.293462</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3094903727.613065</v>
+        <v>3015424769.555779</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1932320754535721</v>
+        <v>0.1467664173073659</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02802966386077716</v>
+        <v>0.02484305768249813</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>84</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1547451944.104995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3203331940.244836</v>
+        <v>2376055136.431386</v>
       </c>
       <c r="F61" t="n">
-        <v>0.164533001808031</v>
+        <v>0.1694650732572916</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03259428755151413</v>
+        <v>0.02309317662359091</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>92</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1601665931.414773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1998714802.682089</v>
+        <v>1974582426.683585</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1687675504558455</v>
+        <v>0.13810005551466</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03121397347786995</v>
+        <v>0.03329752761198834</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>999357459.2140418</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4865376613.756516</v>
+        <v>5236437789.383026</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09788688582089691</v>
+        <v>0.07324238956065841</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03221631111040105</v>
+        <v>0.02909045571321137</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>78</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2432688330.660117</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5061903802.713252</v>
+        <v>4080754891.49742</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1504813908642774</v>
+        <v>0.1689874399163332</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02257043816739658</v>
+        <v>0.02272013284461346</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>84</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2530952011.909472</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4565949473.299767</v>
+        <v>4130244518.810202</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1734259466947597</v>
+        <v>0.1587988658365467</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02453842246979888</v>
+        <v>0.02124037146036787</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>97</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2282974721.443258</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4311859778.970478</v>
+        <v>4772270963.672469</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1546740833847826</v>
+        <v>0.1518572265234063</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04327428653881197</v>
+        <v>0.03158214670620321</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>78</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2155929879.755545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2216785345.78931</v>
+        <v>2905380412.477541</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06728059753932336</v>
+        <v>0.08212075660306493</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03437449804222656</v>
+        <v>0.03488202030447865</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>87</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1108392757.485303</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5690598844.284039</v>
+        <v>5355102725.317313</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1377786339262304</v>
+        <v>0.1335202179021882</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04797039321156021</v>
+        <v>0.04312330180306988</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>87</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2845299520.372168</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2039002639.023206</v>
+        <v>1548324943.66253</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1678741998621344</v>
+        <v>0.182505639812775</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05542902241303278</v>
+        <v>0.04863604577534248</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1019501329.484126</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2286478849.159674</v>
+        <v>2967865923.951277</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06879228809602907</v>
+        <v>0.09244149324703198</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04620889715528458</v>
+        <v>0.04576934336259298</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>77</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1143239355.090399</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4321558515.173094</v>
+        <v>5040943439.350035</v>
       </c>
       <c r="F71" t="n">
-        <v>0.173474470431707</v>
+        <v>0.1600742291111971</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0281830678373622</v>
+        <v>0.02638445311742058</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>98</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2160779312.673578</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2209466593.341153</v>
+        <v>1434745104.889158</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08018154652852272</v>
+        <v>0.07710690763564786</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04116643129626532</v>
+        <v>0.0332795730933736</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1104733209.245957</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2215873659.498716</v>
+        <v>2945211698.73546</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0721722308400901</v>
+        <v>0.1111169223485618</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04970487713088089</v>
+        <v>0.04861050478759578</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>102</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1107936897.536005</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3987215254.929039</v>
+        <v>2502054732.586083</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1601893020050758</v>
+        <v>0.1299645338480401</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02618770642828298</v>
+        <v>0.02926390348297677</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>92</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1993607607.536038</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2357915584.481924</v>
+        <v>1963880982.974404</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1091667420730473</v>
+        <v>0.1356472559382824</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03238916086172418</v>
+        <v>0.03187313572977954</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1178957722.928569</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5164490030.310588</v>
+        <v>4984067048.665874</v>
       </c>
       <c r="F76" t="n">
-        <v>0.109578608837037</v>
+        <v>0.08002262242459525</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02331639511396991</v>
+        <v>0.02517604217328434</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2582245048.722084</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1477628224.709538</v>
+        <v>1566265233.810416</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1208264157656792</v>
+        <v>0.16516323681389</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02395836573697825</v>
+        <v>0.02316222634875809</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>738814096.7297839</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3058017720.647084</v>
+        <v>3268888528.288026</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09068776725176028</v>
+        <v>0.1036460013599324</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04348538071913365</v>
+        <v>0.04219433806981119</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>93</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1529008893.469656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1563470194.038346</v>
+        <v>1517591890.439968</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1566306798643781</v>
+        <v>0.13518735613508</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03702488897952928</v>
+        <v>0.02849097945746878</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>781735142.3430611</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5152208014.725299</v>
+        <v>5115923763.689878</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08811600349701938</v>
+        <v>0.1010012192816882</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02662424900973739</v>
+        <v>0.03332679866480802</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>56</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2576104064.146204</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3793077138.759601</v>
+        <v>4931230511.26647</v>
       </c>
       <c r="F81" t="n">
-        <v>0.10956443873953</v>
+        <v>0.1325364096586969</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0235272218386202</v>
+        <v>0.02217735978212456</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>62</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1896538524.883982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5132182094.696405</v>
+        <v>3846272563.744752</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2156579297640908</v>
+        <v>0.1641643059645113</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02633267707523598</v>
+        <v>0.02553013096653356</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>94</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2566091023.91471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1801146019.135911</v>
+        <v>1800468251.343382</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1364357048313999</v>
+        <v>0.1023548192364545</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04370383663400672</v>
+        <v>0.03724093931680211</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>900572970.1450179</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2103135376.449761</v>
+        <v>2122076242.579869</v>
       </c>
       <c r="F84" t="n">
-        <v>0.074607730651541</v>
+        <v>0.07344901948519506</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04568237628141708</v>
+        <v>0.04652724335633989</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1051567678.101125</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2549609370.919624</v>
+        <v>2627591012.858046</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1824643066460198</v>
+        <v>0.1377318696138653</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05003897259110066</v>
+        <v>0.03895290294490548</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>102</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1274804695.869157</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2643410161.562398</v>
+        <v>2498554830.399915</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1169344814624587</v>
+        <v>0.1695953469820609</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01988909170844554</v>
+        <v>0.02488496493983268</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>35</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1321705197.874798</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>909955024.306604</v>
+        <v>1147551436.191801</v>
       </c>
       <c r="F87" t="n">
-        <v>0.144519085212179</v>
+        <v>0.1577032485735801</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03108906420456566</v>
+        <v>0.02790724257894589</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>454977493.4101121</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2372284555.236608</v>
+        <v>2499134014.645671</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1699580657512667</v>
+        <v>0.1439226700595325</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03367970587277797</v>
+        <v>0.03867284180934794</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>106</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1186142246.038238</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2644564201.805824</v>
+        <v>2491251259.825606</v>
       </c>
       <c r="F89" t="n">
-        <v>0.119722722137871</v>
+        <v>0.108064270112424</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02824659506535779</v>
+        <v>0.02791690802515323</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>92</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1322282165.057185</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1905665073.419585</v>
+        <v>1733670891.226103</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1064110272839994</v>
+        <v>0.12653258712012</v>
       </c>
       <c r="G90" t="n">
-        <v>0.052887052054237</v>
+        <v>0.05526728374670723</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>952832589.7165412</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1696504193.504277</v>
+        <v>1602837144.772235</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1512863059685761</v>
+        <v>0.1559515738301016</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03938375355888681</v>
+        <v>0.05776991677024015</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>848252109.4622447</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2034143078.096082</v>
+        <v>2071341538.285788</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0719285150238724</v>
+        <v>0.07450693800761281</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04392316490948073</v>
+        <v>0.03972252189589898</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>67</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1017071487.809138</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4318971206.730886</v>
+        <v>4184849347.913677</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08973463332093512</v>
+        <v>0.09567622000120615</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04147966148010128</v>
+        <v>0.03927249847930703</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>81</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2159485583.362705</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2344422199.50028</v>
+        <v>2344230889.23287</v>
       </c>
       <c r="F94" t="n">
-        <v>0.162856019108405</v>
+        <v>0.110408269250081</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04191845776141863</v>
+        <v>0.02823847696376156</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1172211142.983505</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2913766198.79325</v>
+        <v>2741839970.919994</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08888378909726656</v>
+        <v>0.123225357068987</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04200142762703119</v>
+        <v>0.04900150589547827</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>65</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1456883105.399013</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1794768296.022371</v>
+        <v>1593703612.527356</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1357378157614201</v>
+        <v>0.1386555371268623</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04103623252293839</v>
+        <v>0.03600884415003348</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>897384156.8942075</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5382853895.336709</v>
+        <v>4574783959.10312</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1421110766571952</v>
+        <v>0.1435077766080828</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0202485663373563</v>
+        <v>0.02738071593357161</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>86</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2691427115.242366</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3616548959.719325</v>
+        <v>3120835692.104335</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1005373880706445</v>
+        <v>0.08848607766253253</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02041647151875074</v>
+        <v>0.02083906675488153</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>73</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1808274506.350286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2517704247.276266</v>
+        <v>2233292341.141502</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1331572159409632</v>
+        <v>0.1082837425126032</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02200408747693177</v>
+        <v>0.02220190342229767</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>86</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1258852074.68808</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4811183734.70182</v>
+        <v>4798384577.286698</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1150176492534386</v>
+        <v>0.1451712451031782</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02734676193444535</v>
+        <v>0.02499407930817944</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>85</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2405592002.789019</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2843375302.523801</v>
+        <v>2299332174.304703</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1863111138898561</v>
+        <v>0.1593043717554537</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04799528249469115</v>
+        <v>0.03966338896681446</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>107</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1421687719.602865</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_269.xlsx
+++ b/output/fit_clients/fit_round_269.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1893295733.871684</v>
+        <v>2115239793.024117</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09242951286563721</v>
+        <v>0.07185524677293038</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0301396129166059</v>
+        <v>0.04066012129432559</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2562180221.739589</v>
+        <v>2038208852.981333</v>
       </c>
       <c r="F3" t="n">
-        <v>0.124816981443364</v>
+        <v>0.1594911112403028</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04640343101705635</v>
+        <v>0.03706836634494788</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5230286668.948563</v>
+        <v>3734900328.803167</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1100702206243255</v>
+        <v>0.1606440922817346</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03506467514267949</v>
+        <v>0.03260571359887509</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2676180876.393947</v>
+        <v>2983861525.427081</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09835203497828514</v>
+        <v>0.07942079738504824</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04737441320351017</v>
+        <v>0.03536449546085552</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1815867752.677002</v>
+        <v>2505342883.9715</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1490831207169263</v>
+        <v>0.09825206666719156</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04967135750248601</v>
+        <v>0.04258113273271924</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3104044305.032307</v>
+        <v>2623070713.563779</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06928996526815141</v>
+        <v>0.0756841982006875</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03124662016024567</v>
+        <v>0.0349191820244523</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3351198801.767801</v>
+        <v>3776099563.547052</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2134255373141822</v>
+        <v>0.1524356531694085</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02211378644522511</v>
+        <v>0.02668189242510712</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2124187667.064738</v>
+        <v>1707685362.870617</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1868891861685365</v>
+        <v>0.1406222381740841</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03412380640723101</v>
+        <v>0.03436018159239899</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4523001391.224073</v>
+        <v>5069016627.276438</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1555960822830254</v>
+        <v>0.1755385597395419</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03404251493864269</v>
+        <v>0.04501465817487531</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2894012400.082228</v>
+        <v>3712704480.923387</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1529349585320803</v>
+        <v>0.1898854929739264</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04229108710485271</v>
+        <v>0.03001360030425967</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2543246194.543612</v>
+        <v>2181152576.352668</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1209530706836545</v>
+        <v>0.1432491560685786</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03582272900208883</v>
+        <v>0.04008257226894462</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4801479211.667032</v>
+        <v>4495276375.70118</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07523247883153827</v>
+        <v>0.09836116687323607</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02108806450070206</v>
+        <v>0.02729108143710613</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3567377094.589446</v>
+        <v>2605091204.656072</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1586308113594551</v>
+        <v>0.1746978187532816</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04294810828760105</v>
+        <v>0.02740194750433646</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1483216457.193156</v>
+        <v>1393125496.212614</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1014755094960024</v>
+        <v>0.08734150812265415</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04356333246861239</v>
+        <v>0.04065744072545859</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2518597123.772821</v>
+        <v>2045473813.482626</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1151871027834804</v>
+        <v>0.1147220648695774</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03866629863928337</v>
+        <v>0.05001436016355799</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3536440349.768013</v>
+        <v>4587262614.362269</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1138364185889587</v>
+        <v>0.1706938837025445</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04273351326463448</v>
+        <v>0.03976320836202318</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3791246928.336648</v>
+        <v>2979006652.852448</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1844140402697566</v>
+        <v>0.1430362691132103</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03302863521726158</v>
+        <v>0.02768625890886025</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -962,16 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1298172450.270763</v>
+        <v>945547989.1039517</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1551583694781919</v>
+        <v>0.1889212077654149</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02611630506598989</v>
+        <v>0.02345169234025291</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1730298122.024975</v>
+        <v>2324597054.522566</v>
       </c>
       <c r="F20" t="n">
-        <v>0.137172311932298</v>
+        <v>0.116597723186574</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02130401911021499</v>
+        <v>0.02987528103144011</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2177237491.115559</v>
+        <v>2007975493.025983</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09230718687020523</v>
+        <v>0.06328883624235318</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03140168195700667</v>
+        <v>0.03991481218511286</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3978674999.382778</v>
+        <v>2817955465.644696</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1352445071161063</v>
+        <v>0.11870505870736</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05381535474202884</v>
+        <v>0.04586180664298732</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1238941794.872449</v>
+        <v>1283777149.275939</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1529050454720488</v>
+        <v>0.1591343110699891</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03889008918450702</v>
+        <v>0.03925942663058906</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3246461643.954287</v>
+        <v>2826416770.092022</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09852773353506684</v>
+        <v>0.1233683023669809</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02365472686552415</v>
+        <v>0.03701054197896921</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1268386159.645942</v>
+        <v>953655047.4787682</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1081416418100964</v>
+        <v>0.07906453623209507</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02188251654948253</v>
+        <v>0.02095020268513653</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1237784714.125763</v>
+        <v>1005967349.137888</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1043232418338431</v>
+        <v>0.09816510310962627</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02671401902629408</v>
+        <v>0.0312046253894207</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4094233386.575869</v>
+        <v>2960603968.928675</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0971136673845549</v>
+        <v>0.1558550645275448</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02705960706855027</v>
+        <v>0.02694336885911545</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3496107737.336289</v>
+        <v>3716346219.178137</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09362845072549966</v>
+        <v>0.1376980469037292</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03404706154004423</v>
+        <v>0.03934563771041546</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3840962067.128968</v>
+        <v>5304501093.509135</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1376153909997975</v>
+        <v>0.09380544365787123</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0296926296603318</v>
+        <v>0.03319562568375355</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1776167722.998695</v>
+        <v>1639717100.176917</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09798890555037147</v>
+        <v>0.08444190912804703</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03346184110798238</v>
+        <v>0.03443364622222547</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>940582389.1765575</v>
+        <v>1495493615.635176</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09044136867091915</v>
+        <v>0.07324465364753768</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03827743356237632</v>
+        <v>0.05176875019996229</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1864585535.64889</v>
+        <v>1255196692.657713</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1030289727378205</v>
+        <v>0.08513021713295291</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02770314139670683</v>
+        <v>0.03180414462053684</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1984294202.007552</v>
+        <v>2726568417.470002</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1974653614391325</v>
+        <v>0.2000592075632015</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05763106534493651</v>
+        <v>0.03868055207782522</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>978356131.6706601</v>
+        <v>1419927360.43796</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09184199932880546</v>
+        <v>0.1117719459149795</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02122669678756268</v>
+        <v>0.01935624065381985</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1111473826.828639</v>
+        <v>897871839.2294158</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07419505390210653</v>
+        <v>0.07863961552879759</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04412127896710354</v>
+        <v>0.03130516226751523</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3055626066.740919</v>
+        <v>2598028031.649189</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1446151779016077</v>
+        <v>0.1578763032691497</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02019086904157042</v>
+        <v>0.01770232067897766</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2926473617.407419</v>
+        <v>2553838860.242322</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1053716762292342</v>
+        <v>0.1022188542651176</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03584540041876969</v>
+        <v>0.03636816038407079</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1344911814.211554</v>
+        <v>1370997682.871323</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08453440143325409</v>
+        <v>0.1015300843810786</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02695864498977508</v>
+        <v>0.03748407484412418</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2131720263.951597</v>
+        <v>2119507874.527481</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1487636514806374</v>
+        <v>0.1876326005083907</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03297916268871351</v>
+        <v>0.02369649379352253</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1527650343.495718</v>
+        <v>1736411204.054772</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1133845230013565</v>
+        <v>0.1611829851134038</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05622005209448597</v>
+        <v>0.04030710206374315</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2923285112.414725</v>
+        <v>2847262394.358682</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1298114286854335</v>
+        <v>0.1405272758294608</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0441021835016044</v>
+        <v>0.03700744958721324</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3643057597.948617</v>
+        <v>4269579569.144733</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1135664168579463</v>
+        <v>0.10356640720625</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04504869790643234</v>
+        <v>0.03087917976294185</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2381603844.80969</v>
+        <v>2198875863.365697</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1777732660114464</v>
+        <v>0.1514051885151506</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01945541155323765</v>
+        <v>0.02434390355217149</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1564137759.052384</v>
+        <v>2291270999.560028</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08789705255823153</v>
+        <v>0.07490063027497063</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03365078749024494</v>
+        <v>0.03587661561582632</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1598071125.137043</v>
+        <v>1573998180.540236</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1229016190764845</v>
+        <v>0.1524480621321708</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05026102353831934</v>
+        <v>0.0471783046026002</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3998045403.760639</v>
+        <v>5534806867.767911</v>
       </c>
       <c r="F46" t="n">
-        <v>0.156628736323867</v>
+        <v>0.1152995476006833</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03930612855132844</v>
+        <v>0.03890106484741512</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3686227266.127472</v>
+        <v>3650655438.954813</v>
       </c>
       <c r="F47" t="n">
-        <v>0.163114262164236</v>
+        <v>0.1961679198644833</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03838784625362422</v>
+        <v>0.05735568779589377</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4151062909.350122</v>
+        <v>4350009825.04724</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1004736983074597</v>
+        <v>0.08897184893467595</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02554277525337382</v>
+        <v>0.03920089703660926</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1418069017.928453</v>
+        <v>1853806923.333387</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1439002188051721</v>
+        <v>0.1253934385172968</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03535551464061554</v>
+        <v>0.04415357058819847</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3832469221.519152</v>
+        <v>3555599089.275445</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1319269318112598</v>
+        <v>0.1712523812361678</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05232349761885064</v>
+        <v>0.05121560778761401</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1083821563.31464</v>
+        <v>1270418361.587932</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1826869890559201</v>
+        <v>0.154387835793287</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04209798842139073</v>
+        <v>0.04200708407941071</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4444196007.251516</v>
+        <v>4712519916.783594</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08435957493074589</v>
+        <v>0.1325482063659561</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05227286161789008</v>
+        <v>0.03814262331167693</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3617342570.536172</v>
+        <v>3037106386.347266</v>
       </c>
       <c r="F53" t="n">
-        <v>0.197527052527314</v>
+        <v>0.1562631516178067</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03291564975393142</v>
+        <v>0.02352071623254337</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4390315662.947496</v>
+        <v>3923072614.37981</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1165225173458771</v>
+        <v>0.1200573649500452</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03866675995901019</v>
+        <v>0.05074221362395804</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4301469047.379819</v>
+        <v>4164418777.186044</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1409144314621645</v>
+        <v>0.1645414676058621</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02705698411135152</v>
+        <v>0.02673547005222493</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1437213773.216919</v>
+        <v>1577445970.680591</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1189054193277429</v>
+        <v>0.1583953381517775</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05072761325438869</v>
+        <v>0.04943657392799967</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3182441112.92493</v>
+        <v>3951232794.043113</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1332902532716567</v>
+        <v>0.1119789335323067</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01987327303865976</v>
+        <v>0.02689875536282733</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1770768945.748851</v>
+        <v>1645024101.50877</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1272456157142651</v>
+        <v>0.1545945336281424</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0294108439518963</v>
+        <v>0.03424493533586512</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,16 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5326597056.687831</v>
+        <v>3724601220.550431</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1265083230232501</v>
+        <v>0.1184525712440817</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0345980762677703</v>
+        <v>0.04980208779275756</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3015424769.555779</v>
+        <v>3584707439.606182</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1467664173073659</v>
+        <v>0.1602928362281068</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02484305768249813</v>
+        <v>0.02940167363450809</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2376055136.431386</v>
+        <v>2650566740.748602</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1694650732572916</v>
+        <v>0.1549655679047446</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02309317662359091</v>
+        <v>0.02061541738491982</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1974582426.683585</v>
+        <v>1728541031.652374</v>
       </c>
       <c r="F62" t="n">
-        <v>0.13810005551466</v>
+        <v>0.1930600013649476</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03329752761198834</v>
+        <v>0.04383025356061242</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5236437789.383026</v>
+        <v>4244664858.04671</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07324238956065841</v>
+        <v>0.1019058299631395</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02909045571321137</v>
+        <v>0.04412069568110928</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4080754891.49742</v>
+        <v>4662344643.067321</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1689874399163332</v>
+        <v>0.1759792865023276</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02272013284461346</v>
+        <v>0.03210277660025536</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4130244518.810202</v>
+        <v>3762868012.992783</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1587988658365467</v>
+        <v>0.1345724934550047</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02124037146036787</v>
+        <v>0.0311904014840713</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4772270963.672469</v>
+        <v>4582680093.620886</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1518572265234063</v>
+        <v>0.1023794077724218</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03158214670620321</v>
+        <v>0.04582540154876242</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2905380412.477541</v>
+        <v>3318883147.419106</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08212075660306493</v>
+        <v>0.0850173036293283</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03488202030447865</v>
+        <v>0.03857042858537667</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5355102725.317313</v>
+        <v>5739971355.962078</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1335202179021882</v>
+        <v>0.152780194572611</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04312330180306988</v>
+        <v>0.03441629702937135</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1548324943.66253</v>
+        <v>1649181255.407842</v>
       </c>
       <c r="F69" t="n">
-        <v>0.182505639812775</v>
+        <v>0.1480245580417824</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04863604577534248</v>
+        <v>0.0379415120247342</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2967865923.951277</v>
+        <v>2953963002.199553</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09244149324703198</v>
+        <v>0.09634017631912144</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04576934336259298</v>
+        <v>0.0491804337123839</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5040943439.350035</v>
+        <v>4476440805.377282</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1600742291111971</v>
+        <v>0.1857165439328125</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02638445311742058</v>
+        <v>0.02089154092427271</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1434745104.889158</v>
+        <v>1575178588.410804</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07710690763564786</v>
+        <v>0.10077356101615</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0332795730933736</v>
+        <v>0.04215859524469502</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2945211698.73546</v>
+        <v>2979544895.776368</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1111169223485618</v>
+        <v>0.1069903053796225</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04861050478759578</v>
+        <v>0.05255370521620423</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2502054732.586083</v>
+        <v>3756583880.452145</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1299645338480401</v>
+        <v>0.1121674312876001</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02926390348297677</v>
+        <v>0.03029029811415949</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1963880982.974404</v>
+        <v>2498127949.259557</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1356472559382824</v>
+        <v>0.1097451040156876</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03187313572977954</v>
+        <v>0.02375482823263358</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4984067048.665874</v>
+        <v>4035407946.116561</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08002262242459525</v>
+        <v>0.08483855231259615</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02517604217328434</v>
+        <v>0.02278719317040004</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1566265233.810416</v>
+        <v>1732082998.102151</v>
       </c>
       <c r="F77" t="n">
-        <v>0.16516323681389</v>
+        <v>0.1449227774971217</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02316222634875809</v>
+        <v>0.02939642481411132</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3268888528.288026</v>
+        <v>3704136456.450839</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1036460013599324</v>
+        <v>0.09339963580432659</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04219433806981119</v>
+        <v>0.0393805637902666</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1517591890.439968</v>
+        <v>1551634997.060695</v>
       </c>
       <c r="F79" t="n">
-        <v>0.13518735613508</v>
+        <v>0.1336740663201892</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02849097945746878</v>
+        <v>0.0362388906244364</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5115923763.689878</v>
+        <v>3657942765.563611</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1010012192816882</v>
+        <v>0.07310882595868089</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03332679866480802</v>
+        <v>0.02535665781465245</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4931230511.26647</v>
+        <v>4700382397.647311</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1325364096586969</v>
+        <v>0.1276347632883708</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02217735978212456</v>
+        <v>0.02512758019815109</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3846272563.744752</v>
+        <v>4368855287.713121</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1641643059645113</v>
+        <v>0.1374083347134865</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02553013096653356</v>
+        <v>0.02497985443907425</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1800468251.343382</v>
+        <v>1535845335.922848</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1023548192364545</v>
+        <v>0.1210878386376846</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03724093931680211</v>
+        <v>0.03602813852529613</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2122076242.579869</v>
+        <v>1818388396.92491</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07344901948519506</v>
+        <v>0.09748661589953338</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04652724335633989</v>
+        <v>0.04884115183738599</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2627591012.858046</v>
+        <v>3625722400.010235</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1377318696138653</v>
+        <v>0.1244412656793085</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03895290294490548</v>
+        <v>0.0446015304836614</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2498554830.399915</v>
+        <v>1823367310.847453</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1695953469820609</v>
+        <v>0.1349263072800573</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02488496493983268</v>
+        <v>0.01690841717608122</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1147551436.191801</v>
+        <v>1255660751.338608</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1577032485735801</v>
+        <v>0.1481443967691226</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02790724257894589</v>
+        <v>0.03940262021524192</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2499134014.645671</v>
+        <v>3479864489.416522</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1439226700595325</v>
+        <v>0.1607175785041124</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03867284180934794</v>
+        <v>0.02524576236123543</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2491251259.825606</v>
+        <v>3424101655.140629</v>
       </c>
       <c r="F89" t="n">
-        <v>0.108064270112424</v>
+        <v>0.1590390154839463</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02791690802515323</v>
+        <v>0.03765498839377076</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1733670891.226103</v>
+        <v>1786835473.03811</v>
       </c>
       <c r="F90" t="n">
-        <v>0.12653258712012</v>
+        <v>0.0935510730519028</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05526728374670723</v>
+        <v>0.05029226516582745</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1602837144.772235</v>
+        <v>1534380214.142584</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1559515738301016</v>
+        <v>0.141630188021352</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05776991677024015</v>
+        <v>0.05268230389349968</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2071341538.285788</v>
+        <v>1831205401.723874</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07450693800761281</v>
+        <v>0.1073070640787691</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03972252189589898</v>
+        <v>0.03909585847446773</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4184849347.913677</v>
+        <v>4917676153.141521</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09567622000120615</v>
+        <v>0.1415106761137061</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03927249847930703</v>
+        <v>0.0348304852526822</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2344230889.23287</v>
+        <v>1654382543.501992</v>
       </c>
       <c r="F94" t="n">
-        <v>0.110408269250081</v>
+        <v>0.1034624484365468</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02823847696376156</v>
+        <v>0.02868817301563925</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2741839970.919994</v>
+        <v>2935826787.72522</v>
       </c>
       <c r="F95" t="n">
-        <v>0.123225357068987</v>
+        <v>0.1321585044433663</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04900150589547827</v>
+        <v>0.03369947172964049</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1593703612.527356</v>
+        <v>2223426238.463903</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1386555371268623</v>
+        <v>0.1224251436498869</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03600884415003348</v>
+        <v>0.04436574607471721</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4574783959.10312</v>
+        <v>4224544521.223107</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1435077766080828</v>
+        <v>0.1685275632729722</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02738071593357161</v>
+        <v>0.02112729049975804</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3120835692.104335</v>
+        <v>3910445167.063841</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08848607766253253</v>
+        <v>0.1284756907702505</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02083906675488153</v>
+        <v>0.02900979783796821</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2233292341.141502</v>
+        <v>2372356192.770125</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1082837425126032</v>
+        <v>0.1041812280972532</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02220190342229767</v>
+        <v>0.02656088588841416</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4798384577.286698</v>
+        <v>4202046406.97035</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1451712451031782</v>
+        <v>0.1766190038457839</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02499407930817944</v>
+        <v>0.02620531406085838</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2299332174.304703</v>
+        <v>3089623742.590464</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1593043717554537</v>
+        <v>0.1808752035853243</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03966338896681446</v>
+        <v>0.05656382271511667</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_269.xlsx
+++ b/output/fit_clients/fit_round_269.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2115239793.024117</v>
+        <v>2152990196.914793</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07185524677293038</v>
+        <v>0.07745955667418626</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04066012129432559</v>
+        <v>0.03520888662080565</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2038208852.981333</v>
+        <v>2178547896.259521</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1594911112403028</v>
+        <v>0.1154055168801705</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03706836634494788</v>
+        <v>0.03243903004269386</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3734900328.803167</v>
+        <v>4415749539.774903</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1606440922817346</v>
+        <v>0.1303227702082647</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03260571359887509</v>
+        <v>0.02359856564535558</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>144</v>
+      </c>
+      <c r="J4" t="n">
+        <v>269</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2983861525.427081</v>
+        <v>3607655865.726076</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07942079738504824</v>
+        <v>0.1109883911035336</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03536449546085552</v>
+        <v>0.04933520197222661</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>108</v>
+      </c>
+      <c r="J5" t="n">
+        <v>259</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2505342883.9715</v>
+        <v>2486374164.011706</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09825206666719156</v>
+        <v>0.1459139030053564</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04258113273271924</v>
+        <v>0.04882463862156795</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +676,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2623070713.563779</v>
+        <v>2096181548.410458</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0756841982006875</v>
+        <v>0.08118357798004233</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0349191820244523</v>
+        <v>0.03322453326826847</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3776099563.547052</v>
+        <v>3844476680.956932</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1524356531694085</v>
+        <v>0.2149523053300912</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02668189242510712</v>
+        <v>0.02367881650533355</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>70</v>
+      </c>
+      <c r="J8" t="n">
+        <v>269</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1707685362.870617</v>
+        <v>2003722361.859463</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1406222381740841</v>
+        <v>0.1932887519824225</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03436018159239899</v>
+        <v>0.03492715957651579</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +775,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5069016627.276438</v>
+        <v>4261091446.626391</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1755385597395419</v>
+        <v>0.2074732243852</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04501465817487531</v>
+        <v>0.05089504010125778</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>242</v>
+      </c>
+      <c r="J10" t="n">
+        <v>269</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -738,16 +816,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3712704480.923387</v>
+        <v>3505150140.255457</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1898854929739264</v>
+        <v>0.1346837577050484</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03001360030425967</v>
+        <v>0.04059130645940656</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>110</v>
+      </c>
+      <c r="J11" t="n">
+        <v>268</v>
+      </c>
+      <c r="K11" t="n">
+        <v>79.54177861901319</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2181152576.352668</v>
+        <v>2086601714.258618</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1432491560685786</v>
+        <v>0.1592966278038675</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04008257226894462</v>
+        <v>0.03886657998171415</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +882,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4495276375.70118</v>
+        <v>4560285194.653551</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09836116687323607</v>
+        <v>0.08842206589669316</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02729108143710613</v>
+        <v>0.02959324401677828</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>137</v>
+      </c>
+      <c r="J13" t="n">
+        <v>268</v>
+      </c>
+      <c r="K13" t="n">
+        <v>94.25378035547529</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +925,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2605091204.656072</v>
+        <v>3680309062.999879</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1746978187532816</v>
+        <v>0.1202083743394384</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02740194750433646</v>
+        <v>0.03152790496407962</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>54</v>
+      </c>
+      <c r="J14" t="n">
+        <v>267</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1393125496.212614</v>
+        <v>1775361782.29827</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08734150812265415</v>
+        <v>0.08171879533048262</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04065744072545859</v>
+        <v>0.03359038665154294</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2045473813.482626</v>
+        <v>2100555696.478557</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1147220648695774</v>
+        <v>0.072597415610423</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05001436016355799</v>
+        <v>0.04135097107858236</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4587262614.362269</v>
+        <v>4657253848.928501</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1706938837025445</v>
+        <v>0.1131140865004881</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03976320836202318</v>
+        <v>0.03545332390154703</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>129</v>
+      </c>
+      <c r="J17" t="n">
+        <v>268</v>
+      </c>
+      <c r="K17" t="n">
+        <v>87.73575094910323</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2979006652.852448</v>
+        <v>3923817380.111821</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1430362691132103</v>
+        <v>0.1365080298881953</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02768625890886025</v>
+        <v>0.02087842509518748</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>67</v>
+      </c>
+      <c r="J18" t="n">
+        <v>269</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>945547989.1039517</v>
+        <v>1044036405.065406</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1889212077654149</v>
+        <v>0.1351790787777046</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02345169234025291</v>
+        <v>0.01911146171786884</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2324597054.522566</v>
+        <v>2659797166.539345</v>
       </c>
       <c r="F20" t="n">
-        <v>0.116597723186574</v>
+        <v>0.1398703315578882</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02987528103144011</v>
+        <v>0.02491185537365844</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2007975493.025983</v>
+        <v>1873963975.50749</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06328883624235318</v>
+        <v>0.06203145028669974</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03991481218511286</v>
+        <v>0.03304681249076818</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2817955465.644696</v>
+        <v>4041924729.713064</v>
       </c>
       <c r="F22" t="n">
-        <v>0.11870505870736</v>
+        <v>0.1229235007897788</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04586180664298732</v>
+        <v>0.04937717597427113</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>70</v>
+      </c>
+      <c r="J22" t="n">
+        <v>268</v>
+      </c>
+      <c r="K22" t="n">
+        <v>91.29337162766907</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1244,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1283777149.275939</v>
+        <v>1168835341.103094</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1591343110699891</v>
+        <v>0.1436002091954485</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03925942663058906</v>
+        <v>0.03306590362096314</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2826416770.092022</v>
+        <v>2788973019.03055</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1233683023669809</v>
+        <v>0.1461271416837481</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03701054197896921</v>
+        <v>0.03021454532743654</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>81</v>
+      </c>
+      <c r="J24" t="n">
+        <v>266</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>953655047.4787682</v>
+        <v>1081832997.858451</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07906453623209507</v>
+        <v>0.1023260927757846</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02095020268513653</v>
+        <v>0.02200545230162953</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1349,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1005967349.137888</v>
+        <v>1328449516.027188</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09816510310962627</v>
+        <v>0.1080930948023016</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0312046253894207</v>
+        <v>0.03165166405201201</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2960603968.928675</v>
+        <v>4419310941.480299</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1558550645275448</v>
+        <v>0.154366267432633</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02694336885911545</v>
+        <v>0.02550071054164611</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>110</v>
+      </c>
+      <c r="J27" t="n">
+        <v>269</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3716346219.178137</v>
+        <v>2726259317.84388</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1376980469037292</v>
+        <v>0.1425497080766406</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03934563771041546</v>
+        <v>0.03181074191631857</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>54</v>
+      </c>
+      <c r="J28" t="n">
+        <v>263</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5304501093.509135</v>
+        <v>4212244601.808161</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09380544365787123</v>
+        <v>0.1326651307332785</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03319562568375355</v>
+        <v>0.03864235474207526</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>257</v>
+      </c>
+      <c r="J29" t="n">
+        <v>269</v>
+      </c>
+      <c r="K29" t="n">
+        <v>98.97168104187594</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1639717100.176917</v>
+        <v>2138954864.333208</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08444190912804703</v>
+        <v>0.09139541315071328</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03443364622222547</v>
+        <v>0.03359934355671443</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1495493615.635176</v>
+        <v>1220671618.53991</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07324465364753768</v>
+        <v>0.07208004713829284</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05176875019996229</v>
+        <v>0.03657530850156768</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1255196692.657713</v>
+        <v>1887953028.774813</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08513021713295291</v>
+        <v>0.07824156070094052</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03180414462053684</v>
+        <v>0.03740717450312953</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2726568417.470002</v>
+        <v>2731863753.012905</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2000592075632015</v>
+        <v>0.1818583213459224</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03868055207782522</v>
+        <v>0.05053729674044515</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1419927360.43796</v>
+        <v>1392669010.105919</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1117719459149795</v>
+        <v>0.1013031728264161</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01935624065381985</v>
+        <v>0.0221671557708309</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>897871839.2294158</v>
+        <v>1249776261.825313</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07863961552879759</v>
+        <v>0.07818962201365076</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03130516226751523</v>
+        <v>0.04447823849315786</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2598028031.649189</v>
+        <v>3072116007.562653</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1578763032691497</v>
+        <v>0.161874579446183</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01770232067897766</v>
+        <v>0.01875988203242803</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2553838860.242322</v>
+        <v>1919876066.450208</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1022188542651176</v>
+        <v>0.1071729979614142</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03636816038407079</v>
+        <v>0.03335688467825496</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1370997682.871323</v>
+        <v>2059394155.835615</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1015300843810786</v>
+        <v>0.07930990419598502</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03748407484412418</v>
+        <v>0.02870263716924097</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2119507874.527481</v>
+        <v>1552812564.097934</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1876326005083907</v>
+        <v>0.1912788056741592</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02369649379352253</v>
+        <v>0.02768872451210187</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1736411204.054772</v>
+        <v>1756872453.778172</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1611829851134038</v>
+        <v>0.1128019601458002</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04030710206374315</v>
+        <v>0.04157069555744439</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2847262394.358682</v>
+        <v>1912054335.59906</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1405272758294608</v>
+        <v>0.1316979519554721</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03700744958721324</v>
+        <v>0.04259797776544665</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1911,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4269579569.144733</v>
+        <v>2894239158.955549</v>
       </c>
       <c r="F42" t="n">
-        <v>0.10356640720625</v>
+        <v>0.1154269376199489</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03087917976294185</v>
+        <v>0.03066413449649499</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>113</v>
+      </c>
+      <c r="J42" t="n">
+        <v>268</v>
+      </c>
+      <c r="K42" t="n">
+        <v>54.13306350856246</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2198875863.365697</v>
+        <v>2623799689.980608</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1514051885151506</v>
+        <v>0.1933326352238718</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02434390355217149</v>
+        <v>0.01801798878628842</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2291270999.560028</v>
+        <v>2270722089.475204</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07490063027497063</v>
+        <v>0.06413616442966383</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03587661561582632</v>
+        <v>0.02754167798354946</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1573998180.540236</v>
+        <v>2029648386.463831</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1524480621321708</v>
+        <v>0.1557631695657909</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0471783046026002</v>
+        <v>0.04034446846762332</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2053,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5534806867.767911</v>
+        <v>4949497295.004988</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1152995476006833</v>
+        <v>0.1472386640131916</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03890106484741512</v>
+        <v>0.05849477250031344</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>157</v>
+      </c>
+      <c r="J46" t="n">
+        <v>269</v>
+      </c>
+      <c r="K46" t="n">
+        <v>95.99050177587394</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3650655438.954813</v>
+        <v>3705879815.682909</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1961679198644833</v>
+        <v>0.1952271665375408</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05735568779589377</v>
+        <v>0.05842534500429829</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>121</v>
+      </c>
+      <c r="J47" t="n">
+        <v>267</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4350009825.04724</v>
+        <v>4421476184.612562</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08897184893467595</v>
+        <v>0.07459831566554817</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03920089703660926</v>
+        <v>0.03470362858219216</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>132</v>
+      </c>
+      <c r="J48" t="n">
+        <v>269</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1853806923.333387</v>
+        <v>1584346059.120421</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1253934385172968</v>
+        <v>0.131009650179193</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04415357058819847</v>
+        <v>0.04101259644390755</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2189,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3555599089.275445</v>
+        <v>3887271412.371325</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1712523812361678</v>
+        <v>0.1108951978429591</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05121560778761401</v>
+        <v>0.04983480539235421</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>87</v>
+      </c>
+      <c r="J50" t="n">
+        <v>268</v>
+      </c>
+      <c r="K50" t="n">
+        <v>91.08236269024746</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1270418361.587932</v>
+        <v>953710620.4138142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.154387835793287</v>
+        <v>0.1560626118384972</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04200708407941071</v>
+        <v>0.03660148143464403</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2261,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4712519916.783594</v>
+        <v>4623769539.277692</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1325482063659561</v>
+        <v>0.1206033061942788</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03814262331167693</v>
+        <v>0.0376514817902854</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>170</v>
+      </c>
+      <c r="J52" t="n">
+        <v>269</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3037106386.347266</v>
+        <v>3184550051.616685</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1562631516178067</v>
+        <v>0.1281235259631354</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02352071623254337</v>
+        <v>0.03458158673567582</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>37</v>
+      </c>
+      <c r="J53" t="n">
+        <v>265</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3923072614.37981</v>
+        <v>4511362410.848982</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1200573649500452</v>
+        <v>0.1557884704827217</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05074221362395804</v>
+        <v>0.04685405572513123</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>142</v>
+      </c>
+      <c r="J54" t="n">
+        <v>269</v>
+      </c>
+      <c r="K54" t="n">
+        <v>96.06382170599353</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4164418777.186044</v>
+        <v>4885963336.877064</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1645414676058621</v>
+        <v>0.1514894012838191</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02673547005222493</v>
+        <v>0.031841055070039</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>121</v>
+      </c>
+      <c r="J55" t="n">
+        <v>268</v>
+      </c>
+      <c r="K55" t="n">
+        <v>95.94124171021809</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1577445970.680591</v>
+        <v>1229702094.289711</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1583953381517775</v>
+        <v>0.1279382880660871</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04943657392799967</v>
+        <v>0.05463231127454534</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3951232794.043113</v>
+        <v>3655915660.935648</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1119789335323067</v>
+        <v>0.1666476312064035</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02689875536282733</v>
+        <v>0.02737525009600596</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>108</v>
+      </c>
+      <c r="J57" t="n">
+        <v>268</v>
+      </c>
+      <c r="K57" t="n">
+        <v>79.28658329075483</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1645024101.50877</v>
+        <v>1224576708.215535</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1545945336281424</v>
+        <v>0.1372931868607598</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03424493533586512</v>
+        <v>0.02643781494268441</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3724601220.550431</v>
+        <v>3852290156.510794</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1184525712440817</v>
+        <v>0.1143004984279671</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04980208779275756</v>
+        <v>0.03941696497212555</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>130</v>
+      </c>
+      <c r="J59" t="n">
+        <v>268</v>
+      </c>
+      <c r="K59" t="n">
+        <v>81.92467773984941</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3584707439.606182</v>
+        <v>2439647069.949523</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1602928362281068</v>
+        <v>0.1409581021705455</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02940167363450809</v>
+        <v>0.02466924116241371</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>40</v>
+      </c>
+      <c r="J60" t="n">
+        <v>264</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2650566740.748602</v>
+        <v>3322748639.623355</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1549655679047446</v>
+        <v>0.1541579253270156</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02061541738491982</v>
+        <v>0.03033300133302721</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>259</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2625,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1728541031.652374</v>
+        <v>2079537580.465825</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1930600013649476</v>
+        <v>0.1604936793338488</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04383025356061242</v>
+        <v>0.03727700704160961</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4244664858.04671</v>
+        <v>5506274410.421971</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1019058299631395</v>
+        <v>0.09014323773104582</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04412069568110928</v>
+        <v>0.03719598428546843</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>130</v>
+      </c>
+      <c r="J63" t="n">
+        <v>269</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4662344643.067321</v>
+        <v>5558843134.616984</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1759792865023276</v>
+        <v>0.1378545497957462</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03210277660025536</v>
+        <v>0.03501263911879805</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>132</v>
+      </c>
+      <c r="J64" t="n">
+        <v>269</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3762868012.992783</v>
+        <v>4713228408.549267</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1345724934550047</v>
+        <v>0.1365715755111687</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0311904014840713</v>
+        <v>0.02925972479754521</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>216</v>
+      </c>
+      <c r="J65" t="n">
+        <v>268</v>
+      </c>
+      <c r="K65" t="n">
+        <v>95.90485176686899</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4582680093.620886</v>
+        <v>3867030511.608949</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1023794077724218</v>
+        <v>0.1435484261283752</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04582540154876242</v>
+        <v>0.04012990266803504</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>133</v>
+      </c>
+      <c r="J66" t="n">
+        <v>268</v>
+      </c>
+      <c r="K66" t="n">
+        <v>78.66708035859783</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2804,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3318883147.419106</v>
+        <v>3496940558.197853</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0850173036293283</v>
+        <v>0.06921546303307105</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03857042858537667</v>
+        <v>0.04899815511982961</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5739971355.962078</v>
+        <v>4250185619.457212</v>
       </c>
       <c r="F68" t="n">
-        <v>0.152780194572611</v>
+        <v>0.09882480217272588</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03441629702937135</v>
+        <v>0.03360485994258004</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>138</v>
+      </c>
+      <c r="J68" t="n">
+        <v>269</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1649181255.407842</v>
+        <v>1958515572.307432</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1480245580417824</v>
+        <v>0.128060199318956</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0379415120247342</v>
+        <v>0.0384311112157328</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2953963002.199553</v>
+        <v>3198225219.735788</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09634017631912144</v>
+        <v>0.09106869142861639</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0491804337123839</v>
+        <v>0.03301450113639395</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>39</v>
+      </c>
+      <c r="J70" t="n">
+        <v>243</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4476440805.377282</v>
+        <v>4855068467.123015</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1857165439328125</v>
+        <v>0.183780869078167</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02089154092427271</v>
+        <v>0.02711109540125674</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>203</v>
+      </c>
+      <c r="J71" t="n">
+        <v>269</v>
+      </c>
+      <c r="K71" t="n">
+        <v>96.72113511298129</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1575178588.410804</v>
+        <v>1751709865.922018</v>
       </c>
       <c r="F72" t="n">
-        <v>0.10077356101615</v>
+        <v>0.06928319473449353</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04215859524469502</v>
+        <v>0.04979763457225946</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2979544895.776368</v>
+        <v>3449920457.095877</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1069903053796225</v>
+        <v>0.08798541243831284</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05255370521620423</v>
+        <v>0.03929407239591378</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>16</v>
+      </c>
+      <c r="J73" t="n">
+        <v>252</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3045,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3756583880.452145</v>
+        <v>3762245049.644961</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1121674312876001</v>
+        <v>0.1371637359742169</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03029029811415949</v>
+        <v>0.02804494217340682</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>76</v>
+      </c>
+      <c r="J74" t="n">
+        <v>268</v>
+      </c>
+      <c r="K74" t="n">
+        <v>90.1278872447598</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3088,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2498127949.259557</v>
+        <v>1754967130.691484</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1097451040156876</v>
+        <v>0.1288133779376367</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02375482823263358</v>
+        <v>0.02784394742728956</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4035407946.116561</v>
+        <v>5002223699.363236</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08483855231259615</v>
+        <v>0.0951681301730281</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02278719317040004</v>
+        <v>0.02569611086400103</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>126</v>
+      </c>
+      <c r="J76" t="n">
+        <v>268</v>
+      </c>
+      <c r="K76" t="n">
+        <v>87.19426020712153</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3160,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1732082998.102151</v>
+        <v>1700536536.827433</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1449227774971217</v>
+        <v>0.1259767074797995</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02939642481411132</v>
+        <v>0.02149785366926306</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3704136456.450839</v>
+        <v>4547765163.594329</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09339963580432659</v>
+        <v>0.1086752461078382</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0393805637902666</v>
+        <v>0.0532809703905496</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>135</v>
+      </c>
+      <c r="J78" t="n">
+        <v>269</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1551634997.060695</v>
+        <v>1398965493.137006</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1336740663201892</v>
+        <v>0.1179400449799589</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0362388906244364</v>
+        <v>0.03812489274399911</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3657942765.563611</v>
+        <v>4420875379.991148</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07310882595868089</v>
+        <v>0.08012617033972633</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02535665781465245</v>
+        <v>0.03240429543133449</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>131</v>
+      </c>
+      <c r="J80" t="n">
+        <v>269</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4700382397.647311</v>
+        <v>4716833547.824019</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1276347632883708</v>
+        <v>0.1364735854027894</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02512758019815109</v>
+        <v>0.02108083207514129</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>123</v>
+      </c>
+      <c r="J81" t="n">
+        <v>269</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4368855287.713121</v>
+        <v>5235523869.947947</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1374083347134865</v>
+        <v>0.1812841988194319</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02497985443907425</v>
+        <v>0.02156379031335709</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>200</v>
+      </c>
+      <c r="J82" t="n">
+        <v>269</v>
+      </c>
+      <c r="K82" t="n">
+        <v>97.47289526495835</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1535845335.922848</v>
+        <v>2321479572.582911</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1210878386376846</v>
+        <v>0.140920473933834</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03602813852529613</v>
+        <v>0.03008841593854089</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1818388396.92491</v>
+        <v>1895302258.292253</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09748661589953338</v>
+        <v>0.1068099514515276</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04884115183738599</v>
+        <v>0.0461436739338261</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3625722400.010235</v>
+        <v>2479731721.073702</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1244412656793085</v>
+        <v>0.1121443330230926</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0446015304836614</v>
+        <v>0.05076875675288648</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>37</v>
+      </c>
+      <c r="J85" t="n">
+        <v>265</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1823367310.847453</v>
+        <v>1946071083.838542</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1349263072800573</v>
+        <v>0.1244442790967662</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01690841717608122</v>
+        <v>0.02067144144956404</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1255660751.338608</v>
+        <v>986688258.1499927</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1481443967691226</v>
+        <v>0.1746208210802978</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03940262021524192</v>
+        <v>0.03738228607865794</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3479864489.416522</v>
+        <v>3254377528.413509</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1607175785041124</v>
+        <v>0.1085049766506624</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02524576236123543</v>
+        <v>0.03547715732245805</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>38</v>
+      </c>
+      <c r="J88" t="n">
+        <v>255</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3424101655.140629</v>
+        <v>2421073530.828704</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1590390154839463</v>
+        <v>0.1519256741454837</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03765498839377076</v>
+        <v>0.03958257413792945</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>20</v>
+      </c>
+      <c r="J89" t="n">
+        <v>258</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1786835473.03811</v>
+        <v>2087785151.221089</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0935510730519028</v>
+        <v>0.09356298765927756</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05029226516582745</v>
+        <v>0.05071860726860877</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1534380214.142584</v>
+        <v>1396873363.906727</v>
       </c>
       <c r="F91" t="n">
-        <v>0.141630188021352</v>
+        <v>0.141145583362075</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05268230389349968</v>
+        <v>0.04889271097380913</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1831205401.723874</v>
+        <v>2744002601.044913</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1073070640787691</v>
+        <v>0.09611946936371865</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03909585847446773</v>
+        <v>0.0335093336144416</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3722,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4917676153.141521</v>
+        <v>4845373786.46495</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1415106761137061</v>
+        <v>0.1312179588913018</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0348304852526822</v>
+        <v>0.03920483235074684</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>117</v>
+      </c>
+      <c r="J93" t="n">
+        <v>269</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1654382543.501992</v>
+        <v>1804225704.479094</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1034624484365468</v>
+        <v>0.1329146181196764</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02868817301563925</v>
+        <v>0.0311132153820566</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2935826787.72522</v>
+        <v>2027487741.816711</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1321585044433663</v>
+        <v>0.1303537720818742</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03369947172964049</v>
+        <v>0.04626779474614588</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2223426238.463903</v>
+        <v>1719350645.705581</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1224251436498869</v>
+        <v>0.08719359079721868</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04436574607471721</v>
+        <v>0.03071947867177515</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4224544521.223107</v>
+        <v>3450836512.850233</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1685275632729722</v>
+        <v>0.1179398463849341</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02112729049975804</v>
+        <v>0.02398761644615982</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>133</v>
+      </c>
+      <c r="J97" t="n">
+        <v>268</v>
+      </c>
+      <c r="K97" t="n">
+        <v>70.01513248011791</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3910445167.063841</v>
+        <v>2973788445.882161</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1284756907702505</v>
+        <v>0.1006201154537013</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02900979783796821</v>
+        <v>0.02755650522565685</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>65</v>
+      </c>
+      <c r="J98" t="n">
+        <v>266</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2372356192.770125</v>
+        <v>3051430812.708202</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1041812280972532</v>
+        <v>0.14510253480139</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02656088588841416</v>
+        <v>0.02423330451040932</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3963,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4202046406.97035</v>
+        <v>3942613977.123982</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1766190038457839</v>
+        <v>0.1661101442991667</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02620531406085838</v>
+        <v>0.02548220280888312</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>113</v>
+      </c>
+      <c r="J100" t="n">
+        <v>269</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3089623742.590464</v>
+        <v>2496366730.69858</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1808752035853243</v>
+        <v>0.1449472105314972</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05656382271511667</v>
+        <v>0.04249669435273358</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>22</v>
+      </c>
+      <c r="J101" t="n">
+        <v>268</v>
+      </c>
+      <c r="K101" t="n">
+        <v>41.38458785155395</v>
       </c>
     </row>
   </sheetData>
